--- a/medicine/Psychotrope/Château_de_Crémat/Château_de_Crémat.xlsx
+++ b/medicine/Psychotrope/Château_de_Crémat/Château_de_Crémat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Cr%C3%A9mat</t>
+          <t>Château_de_Crémat</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château de Crémat est un château construit à Nice dans le département des Alpes-Maritimes en 1906. C'est un domaine viticole faisant partie du vignoble de Bellet, et un lieu de réception.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Cr%C3%A9mat</t>
+          <t>Château_de_Crémat</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire du château de Crémat remonte au temps de l'Empire romain, à cette époque une légion s'installe sur le lieu dit Li Plana di Mari qui servait pour la culture de l'olivier et de la vigne. Plus tard, en 1906, Antoine Mari, marchand de vin, fait construire le château sur les galeries souterraines de Li Plana di Mari utilisées à l'époque des Romains pour l'huile et le vin, elles deviennent les caves du château. Il fait renaître le vignoble belletan après les ravages causés par le phylloxéra.
 En 1923 le domaine est acquis par une richissime américaine, actionnaire d’une grande compagnie américaine de chemins de fer : Irène Bretz. Cette dernière entreprend des travaux d’aménagement sous la direction du cabinet d’architecture Dalmas, qui œuvra à la construction des grands hôtels de la Belle Époque dont le Carlton à Cannes. Ces transformations, aussi bien intérieures qu’extérieures, n’altèrent en rien l’allure générale du château qui conserve son fier donjon. Mme Bretz, déjà propriétaire du mythique Négresco, recevait à Nice tout ce que la Côte d’Azur comptait de célébrités et l’une des hôtes assidues de ces fastueuses soirées n’était autre que Coco Chanel dont le style domina la mode ; la petite histoire révèle qu’elle se serait inspirée des initiales du château de Crémat, les deux C entrelacés, pour créer le sigle de sa prestigieuse maison de couture.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Cr%C3%A9mat</t>
+          <t>Château_de_Crémat</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château  de Crémat a été construit en 1906 dans le style moyenâgeux caractérisé par son imposante tour à mâchicoulis et ses ornements rococo. Il fait partie du vignoble de Bellet situé sur une des collines de Nice.
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Cr%C3%A9mat</t>
+          <t>Château_de_Crémat</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les vins blancs de ce domaine sont principalement élaborés à partir des cépages Rolle et Chardonnay. Le Rolle, également connu sous le nom de Vermentino en Italie, est traditionnellement cultivé dans les régions méditerranéennes. Sur les terroirs chauds du domaine, il offre une expression particulièrement riche et délicate. Le Chardonnay, intégré au domaine à la fin des années 1990, contribue à la minéralité distinctive de ces vins blancs.
